--- a/плата.xlsx
+++ b/плата.xlsx
@@ -1,46 +1,45 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22527"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Александр\Desktop\Студенты практика\electric\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2A05502-56AC-4FEF-9E88-4E0943272F77}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet name="Лист1" r:id="rId1" sheetId="1" state="visible"/>
+    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t xml:space="preserve">INPUT CAP C1 </t>
   </si>
   <si>
     <t>CC1206KKX5R6BB226</t>
+  </si>
+  <si>
+    <t>D1</t>
+  </si>
+  <si>
+    <t>B560C-13-F</t>
   </si>
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
-      </rPr>
-      <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_22uF-226-10-10V_C110046.html</t>
-    </r>
-  </si>
-  <si>
-    <t>D1</t>
-  </si>
-  <si>
-    <t>B560C-13-F</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
       </rPr>
       <t>https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Diodes-Incorporated-B560C-13-F_C85100.html</t>
     </r>
@@ -54,10 +53,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
       </rPr>
       <t>https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_LangJie-SS36C_C7450534.html</t>
     </r>
@@ -71,10 +70,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
       </rPr>
       <t>https://www.lcsc.com/product-detail/MOSFETs_Shenzhen-ruichips-Semicon-RU75150R_C165904.html</t>
     </r>
@@ -88,10 +87,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
       </rPr>
       <t>https://www.lcsc.com/product-detail/MOSFETs_ETERNAL-EY4409_C967050.html</t>
     </r>
@@ -105,10 +104,10 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
       </rPr>
       <t>https://www.lcsc.com/product-detail/Current-Sense-Resistors-Shunt-Resistors_PSA-Prosperity-Dielectrics-FMF06JTHR015-LH_C1021508.html</t>
     </r>
@@ -134,72 +133,122 @@
   <si>
     <r>
       <rPr>
+        <u/>
+        <sz val="12"/>
+        <color rgb="FF0000FF"/>
         <rFont val="XO Thames"/>
-        <color rgb="0000FF" tint="0"/>
-        <sz val="12"/>
-        <u val="single"/>
       </rPr>
       <t>https://www.lcsc.com/product-detail/Power-Inductors_BOURNS-RLB0914-220KL_C1329566.html</t>
     </r>
+  </si>
+  <si>
+    <t>https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_22uF-226-10-10V_C110046.html</t>
+  </si>
+  <si>
+    <t>Не проходит по напряжению, все остальное ок (напряжение должно быть минимум 16В)</t>
+  </si>
+  <si>
+    <t>Нужно найти в SMD корпусе, который монтируется на плату, а не через сквозные отверстия (погугли чем DIP от SMD отличается)</t>
+  </si>
+  <si>
+    <t>Поищи заодно в 0603 корпусе, понадобятся позже, номиналы: 4.7К, 1.8 Ом</t>
+  </si>
+  <si>
+    <t>Ошибка в ссылке, не ту прикрепила, ссылка ведет на резистор</t>
+  </si>
+  <si>
+    <t>Неправильная индкутивность (у тебя 22uH, нужно 2.2uH), нет в наличии на сайте, не проходит по току</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
+      <sz val="11"/>
       <name val="Calibri"/>
-      <sz val="11"/>
     </font>
     <font>
+      <sz val="12"/>
       <name val="XO Thames"/>
-      <sz val="12"/>
     </font>
     <font>
+      <u/>
+      <sz val="12"/>
+      <color rgb="FF0000FF"/>
       <name val="XO Thames"/>
-      <color rgb="0000FF" tint="0"/>
-      <sz val="12"/>
-      <u val="single"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
-      <left style="none"/>
-      <right style="none"/>
-      <top style="none"/>
-      <bottom style="none"/>
-      <diagonal style="none"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false"/>
-    <xf applyFont="true" borderId="0" fillId="0" fontId="2" quotePrefix="false"/>
-    <xf applyAlignment="true" applyFont="true" borderId="0" fillId="0" fontId="1" quotePrefix="false">
-      <alignment horizontal="left" indent="0"/>
+  <cellXfs count="7">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleMedium4" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -396,135 +445,164 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:a15="http://schemas.microsoft.com/office/drawing/2012/main" xmlns:asvg="http://schemas.microsoft.com/office/drawing/2016/SVG/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:co="http://ncloudtech.com" xmlns:co-ooxml="http://ncloudtech.com/ooxml" xmlns:m="http://schemas.openxmlformats.org/officeDocument/2006/math" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:o="urn:schemas-microsoft-com:office:office" xmlns:p="http://schemas.openxmlformats.org/presentationml/2006/main" xmlns:pic="http://schemas.openxmlformats.org/drawingml/2006/picture" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:s="http://schemas.openxmlformats.org/officeDocument/2006/sharedTypes" xmlns:sl="http://schemas.openxmlformats.org/schemaLibrary/2006/main" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:w="http://schemas.openxmlformats.org/wordprocessingml/2006/main" xmlns:w14="http://schemas.microsoft.com/office/word/2010/wordml" xmlns:w15="http://schemas.microsoft.com/office/word/2012/wordml" xmlns:wp="http://schemas.openxmlformats.org/drawingml/2006/wordprocessingDrawing" xmlns:wpg="http://schemas.microsoft.com/office/word/2010/wordprocessingGroup" xmlns:wps="http://schemas.microsoft.com/office/word/2010/wordprocessingShape" xmlns:x="urn:schemas-microsoft-com:office:excel" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" mc:Ignorable="co co-ooxml w14 x14 w15">
-  <sheetPr>
-    <outlinePr summaryBelow="true" summaryRight="true"/>
-  </sheetPr>
-  <dimension ref="A1:J20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:H10"/>
   <sheetViews>
-    <sheetView showZeros="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J19:K20"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" customHeight="false" defaultColWidth="10.7884703773945" defaultRowHeight="15" zeroHeight="false"/>
+  <sheetFormatPr defaultColWidth="10.7109375" defaultRowHeight="15"/>
   <cols>
-    <col customWidth="true" hidden="false" max="1" min="1" outlineLevel="0" style="0" width="18.6252791453454"/>
-    <col customWidth="true" hidden="false" max="2" min="2" outlineLevel="0" style="0" width="19.6895807334606"/>
-    <col customWidth="true" hidden="false" max="3" min="3" outlineLevel="0" style="0" width="103.556553184917"/>
-    <col bestFit="true" customWidth="true" max="9" min="4" outlineLevel="0" style="0" width="10.7884703773945"/>
-    <col customWidth="true" hidden="false" max="10" min="10" outlineLevel="0" style="0" width="8.56053417266826"/>
-    <col bestFit="true" customWidth="true" max="16384" min="11" outlineLevel="0" style="0" width="10.7884703773945"/>
+    <col min="1" max="1" width="18.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.7109375" customWidth="1"/>
+    <col min="3" max="3" width="103.5703125" customWidth="1"/>
+    <col min="4" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="8.5703125" customWidth="1"/>
+    <col min="11" max="11" width="10.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row outlineLevel="0" r="2">
-      <c r="A2" s="0" t="s">
+    <row r="2" spans="1:8" ht="15.75">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="0" t="s">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
+      <c r="F2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="3">
-      <c r="A3" s="0" t="s">
+      <c r="B3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="D3" s="3"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="4">
-      <c r="A4" s="0" t="s">
+      <c r="B4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="0" t="s">
+      <c r="C4" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1" t="s">
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="5">
-      <c r="A5" s="0" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="0" t="s">
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
+      <c r="F5" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="6">
-      <c r="A6" s="0" t="s">
+      <c r="B6" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="0" t="s">
+      <c r="C6" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="3"/>
+      <c r="E6" s="3"/>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="7">
-      <c r="A7" s="0" t="s">
+      <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="B7" s="0" t="s">
+      <c r="C7" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="3"/>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3"/>
+      <c r="H7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="8">
-      <c r="A8" s="0" t="s">
+      <c r="B8" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B8" s="0" t="s">
+      <c r="C8" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row outlineLevel="0" r="9">
-      <c r="A9" s="0" t="s">
+      <c r="B9" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="0" t="s">
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row outlineLevel="0" r="10">
-      <c r="A10" s="0" t="s">
+      <c r="B10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B10" s="0" t="s">
+      <c r="C10" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>24</v>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="H10" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink display="https://www.lcsc.com/product-detail/Power-Inductors_BOURNS-RLB0914-220KL_C1329566.html" r:id="rId1" ref="C10"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/Multilayer-Ceramic-Capacitors-MLCC-SMD-SMT_22uF-226-10-10V_C110046." r:id="rId2" ref="C2"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_Diodes-Incorporated-B560C-13-F_C85100.html" r:id="rId3" ref="C3"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/Schottky-Barrier-Diodes-SBD_LangJie-SS36C_C7450534.html" r:id="rId4" ref="C4"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/MOSFETs_Shenzhen-ruichips-Semicon-RU75150R_C165904.html" r:id="rId5" ref="C5"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/MOSFETs_ETERNAL-EY4409_C967050.html" r:id="rId6" ref="C6"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/Current-Sense-Resistors-Shunt-Resistors_PSA-Prosperity-Dielectrics-FMF06JTHR015-LH_C1021508.html" r:id="rId7" ref="C7"/>
-    <hyperlink display="https://www.lcsc.com/product-detail/Current-Sense-Resistors-Shunt-Resistors_PSA-Prosperity-Dielectrics-FMF06JTHR015-LH_C1021508.html" r:id="rId7" ref="C8"/>
+    <hyperlink ref="C10" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="C2" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="C3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="C8" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
   </hyperlinks>
-  <pageMargins bottom="0.790000021457672" footer="0.19680555164814" header="0.19680555164814" left="0.790000021457672" right="0.790000021457672" top="0.790000021457672"/>
+  <pageMargins left="0.79000002145767201" right="0.79000002145767201" top="0.79000002145767201" bottom="0.79000002145767201" header="0.19680555164814001" footer="0.19680555164814001"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId9"/>
 </worksheet>
 </file>